--- a/map_excel_data.xlsx
+++ b/map_excel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhashsoni/Formatting_excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582347A-7F00-8243-9352-35126B231C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B3DB3-D3FB-D147-86CE-4E1F90F3B5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="38400" windowHeight="19200" xr2:uid="{138AF32D-CFC3-7743-B73E-48F8D07711B4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19140" xr2:uid="{138AF32D-CFC3-7743-B73E-48F8D07711B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="154">
   <si>
     <t>state_name</t>
   </si>
@@ -393,6 +393,114 @@
   </si>
   <si>
     <t>end_y</t>
+  </si>
+  <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
+    <t>_user</t>
+  </si>
+  <si>
+    <t>start_loca</t>
+  </si>
+  <si>
+    <t>start_lo_1</t>
+  </si>
+  <si>
+    <t>forest_sta</t>
+  </si>
+  <si>
+    <t>forest_s_1</t>
+  </si>
+  <si>
+    <t>forest_end</t>
+  </si>
+  <si>
+    <t>forest_e_1</t>
+  </si>
+  <si>
+    <t>damage_sta</t>
+  </si>
+  <si>
+    <t>damage_s_1</t>
+  </si>
+  <si>
+    <t>damage_end</t>
+  </si>
+  <si>
+    <t>damage_e_1</t>
+  </si>
+  <si>
+    <t>crossing_e</t>
+  </si>
+  <si>
+    <t>crossing_2</t>
+  </si>
+  <si>
+    <t>end_loca_1</t>
+  </si>
+  <si>
+    <t>start_lo_2</t>
+  </si>
+  <si>
+    <t>forest_s_2</t>
+  </si>
+  <si>
+    <t>seg_geomet</t>
+  </si>
+  <si>
+    <t>forest_e_2</t>
+  </si>
+  <si>
+    <t>damage_s_2</t>
+  </si>
+  <si>
+    <t>damage_e_2</t>
+  </si>
+  <si>
+    <t>crossing_3</t>
+  </si>
+  <si>
+    <t>crossing_4</t>
+  </si>
+  <si>
+    <t>end_loca_2</t>
+  </si>
+  <si>
+    <t>road_edge_</t>
+  </si>
+  <si>
+    <t>road_edg_1</t>
+  </si>
+  <si>
+    <t>road_edg_2</t>
+  </si>
+  <si>
+    <t>road_edg_3</t>
+  </si>
+  <si>
+    <t>road_edg_4</t>
+  </si>
+  <si>
+    <t>road_edg_5</t>
+  </si>
+  <si>
+    <t>end_loca_3</t>
+  </si>
+  <si>
+    <t>crossing_5</t>
+  </si>
+  <si>
+    <t>crossing_6</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>SHAPE_Leng</t>
+  </si>
+  <si>
+    <t>Calculate</t>
   </si>
 </sst>
 </file>
@@ -822,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE374F8-7FB1-D04E-AFCF-2DC350D530C6}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,8 +960,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
+      <c r="A2" t="s">
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -866,22 +974,20 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
+      <c r="A3" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>50</v>
+      <c r="A4" t="s">
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -894,8 +1000,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>51</v>
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -908,8 +1014,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>52</v>
+      <c r="A6" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
@@ -922,36 +1028,34 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>53</v>
+      <c r="A7" t="s">
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>54</v>
+      <c r="A8" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>55</v>
+      <c r="A9" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -964,8 +1068,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
+      <c r="A10" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -978,8 +1082,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
+      <c r="A11" t="s">
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -992,8 +1096,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>58</v>
+      <c r="A12" t="s">
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -1006,8 +1110,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>59</v>
+      <c r="A13" t="s">
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -1020,8 +1124,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>60</v>
+      <c r="A14" t="s">
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1034,8 +1138,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>61</v>
+      <c r="A15" t="s">
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1048,8 +1152,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
+      <c r="A16" t="s">
+        <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -1062,8 +1166,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>63</v>
+      <c r="A17" t="s">
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -1076,8 +1180,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>64</v>
+      <c r="A18" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -1090,8 +1194,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>65</v>
+      <c r="A19" t="s">
+        <v>123</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -1105,8 +1209,8 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>66</v>
+      <c r="A20" t="s">
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -1119,8 +1223,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>67</v>
+      <c r="A21" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1133,8 +1237,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>68</v>
+      <c r="A22" t="s">
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -1147,8 +1251,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -1161,8 +1265,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>69</v>
+      <c r="A24" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -1175,8 +1279,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -1189,8 +1293,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>2</v>
+      <c r="A26" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -1203,8 +1307,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>70</v>
+      <c r="A27" t="s">
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
@@ -1217,8 +1321,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>71</v>
+      <c r="A28" t="s">
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -1231,8 +1335,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>72</v>
+      <c r="A29" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -1245,8 +1349,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>73</v>
+      <c r="A30" t="s">
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
@@ -1259,8 +1363,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>74</v>
+      <c r="A31" t="s">
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
@@ -1273,8 +1377,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>75</v>
+      <c r="A32" t="s">
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>47</v>
@@ -1287,8 +1391,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>76</v>
+      <c r="A33" t="s">
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>48</v>
@@ -1301,312 +1405,372 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>77</v>
+      <c r="A34" t="s">
+        <v>127</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>78</v>
+      <c r="A35" t="s">
+        <v>128</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>79</v>
+      <c r="A36" t="s">
+        <v>129</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>80</v>
+      <c r="A37" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>81</v>
+      <c r="A38" t="s">
+        <v>82</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>82</v>
+      <c r="A39" t="s">
+        <v>91</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>3</v>
+      <c r="A40" t="s">
+        <v>92</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>83</v>
+      <c r="A41" t="s">
+        <v>93</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>84</v>
+      <c r="A42" t="s">
+        <v>95</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>85</v>
+      <c r="A43" t="s">
+        <v>107</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>86</v>
+      <c r="A44" t="s">
+        <v>130</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>87</v>
+      <c r="A45" t="s">
+        <v>131</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>88</v>
+      <c r="A46" t="s">
+        <v>97</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>89</v>
+      <c r="A47" t="s">
+        <v>105</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>90</v>
+      <c r="A48" t="s">
+        <v>108</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>91</v>
+      <c r="A49" t="s">
+        <v>109</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>92</v>
+      <c r="A50" t="s">
+        <v>110</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>93</v>
+      <c r="A51" t="s">
+        <v>112</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>94</v>
+      <c r="A52" t="s">
+        <v>132</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>95</v>
+      <c r="A53" t="s">
+        <v>133</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>96</v>
+      <c r="A54" t="s">
+        <v>134</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>97</v>
+      <c r="A55" t="s">
+        <v>135</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>98</v>
+      <c r="A56" t="s">
+        <v>136</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>99</v>
+      <c r="A57" t="s">
+        <v>137</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>100</v>
+      <c r="A58" t="s">
+        <v>138</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>101</v>
+      <c r="A59" t="s">
+        <v>139</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>102</v>
+      <c r="A60" t="s">
+        <v>140</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>103</v>
+      <c r="A61" t="s">
+        <v>141</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>104</v>
+      <c r="A62" t="s">
+        <v>70</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>105</v>
+      <c r="A63" t="s">
+        <v>142</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>106</v>
+      <c r="A64" t="s">
+        <v>143</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>107</v>
+      <c r="A65" t="s">
+        <v>144</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>108</v>
+      <c r="A66" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>109</v>
+      <c r="A67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>110</v>
+      <c r="A68" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>117</v>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1616,15 +1780,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D7E07-1E2D-244B-A4E4-1D6F0F9C86FC}">
-  <dimension ref="B1:BX1"/>
+  <dimension ref="A1:CI4"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:BX1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>49</v>
       </c>
@@ -1849,6 +2013,269 @@
       </c>
       <c r="BX1" s="7" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>150</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
